--- a/NformTester/NformTester/Keywordscripts/900.10.080_ContextMenu.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.10.080_ContextMenu.xlsx
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7464" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7464" uniqueCount="837">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3772,6 +3772,10 @@
   <si>
     <t>;Right click the item.</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4814,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5954,7 +5958,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>785</v>
+        <v>836</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>19</v>
@@ -5979,7 +5983,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>785</v>
+        <v>836</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>19</v>

--- a/NformTester/NformTester/Keywordscripts/900.10.080_ContextMenu.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.10.080_ContextMenu.xlsx
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7464" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7464" uniqueCount="836">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3685,10 +3685,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\user\samples\floor1.png"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Test link"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3708,10 +3704,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$Delete_File_Path_2$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Script Info</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3775,6 +3767,10 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_Image_File_Name$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4021,77 +4017,7 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4818,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4837,10 +4763,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>757</v>
@@ -4882,10 +4808,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -4907,67 +4833,71 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>764</v>
+      <c r="D3" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>817</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>783</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="5"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="15">
+    <row r="4" spans="1:15">
       <c r="A4" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>764</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B5" s="20">
         <v>41815</v>
@@ -4975,63 +4905,63 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>792</v>
-      </c>
+      <c r="D5" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="N5" s="9"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:15">
       <c r="A6" s="16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>792</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="8"/>
+      <c r="H6" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="N6" s="9"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="16" t="s">
         <v>765</v>
       </c>
@@ -5041,18 +4971,12 @@
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D7" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -5064,31 +4988,31 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="16" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15">
@@ -5105,10 +5029,10 @@
         <v>785</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>2</v>
@@ -5132,17 +5056,15 @@
         <v>785</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>804</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -5160,19 +5082,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>626</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -5191,19 +5113,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>626</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -5223,17 +5147,15 @@
         <v>785</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>802</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -5257,15 +5179,15 @@
         <v>635</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="I14" s="11"/>
+        <v>802</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -5288,13 +5210,13 @@
         <v>635</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>636</v>
+        <v>255</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -5319,12 +5241,14 @@
         <v>635</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>303</v>
+        <v>636</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>835</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -5345,10 +5269,10 @@
         <v>785</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>2</v>
@@ -5377,14 +5301,12 @@
         <v>555</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>814</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -5393,7 +5315,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="21" t="s">
         <v>776</v>
       </c>
@@ -5410,13 +5332,13 @@
         <v>555</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>815</v>
+      <c r="H19" s="7" t="s">
+        <v>813</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -5426,7 +5348,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="14.25">
       <c r="A20" s="21" t="s">
         <v>777</v>
       </c>
@@ -5441,12 +5363,14 @@
         <v>555</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>814</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -5470,7 +5394,7 @@
         <v>555</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>17</v>
+        <v>556</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>2</v>
@@ -5496,7 +5420,7 @@
         <v>785</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>17</v>
@@ -5521,17 +5445,15 @@
         <v>785</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>628</v>
+        <v>17</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>795</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -5551,12 +5473,14 @@
         <v>626</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>795</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -5576,7 +5500,7 @@
         <v>626</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>2</v>
@@ -5601,12 +5525,12 @@
         <v>626</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>17</v>
+        <v>631</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -5623,15 +5547,15 @@
         <v>785</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
@@ -5640,16 +5564,22 @@
       <c r="N27" s="12"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="15">
+    <row r="28" spans="1:15">
       <c r="C28" s="3">
         <v>27</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="D28" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -5659,22 +5589,16 @@
       <c r="N28" s="12"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="15">
       <c r="C29" s="3">
         <v>28</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="D29" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="7"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -5695,7 +5619,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>2</v>
@@ -5717,18 +5641,16 @@
         <v>785</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="I31" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -5747,13 +5669,15 @@
         <v>241</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="I32" s="7"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -5769,18 +5693,16 @@
         <v>785</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="I33" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -5799,12 +5721,14 @@
         <v>254</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>807</v>
+      </c>
       <c r="I34" s="7"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -5818,15 +5742,17 @@
         <v>34</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="F35" s="11">
-        <v>5</v>
-      </c>
-      <c r="G35" s="11"/>
+        <v>785</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="11"/>
@@ -5841,17 +5767,15 @@
         <v>35</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>785</v>
+        <v>808</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>2</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F36" s="11">
+        <v>5</v>
+      </c>
+      <c r="G36" s="11"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="11"/>
@@ -5868,11 +5792,11 @@
       <c r="D37" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>241</v>
+      <c r="E37" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>2</v>
@@ -5886,16 +5810,22 @@
       <c r="N37" s="12"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="3:15" ht="15">
+    <row r="38" spans="3:15">
       <c r="C38" s="3">
         <v>37</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="D38" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="11"/>
@@ -5905,29 +5835,23 @@
       <c r="N38" s="12"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="3:15">
+    <row r="39" spans="3:15" ht="15">
       <c r="C39" s="3">
         <v>38</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="8"/>
+      <c r="D39" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12"/>
     </row>
     <row r="40" spans="3:15">
       <c r="C40" s="3">
@@ -5940,10 +5864,10 @@
         <v>19</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>834</v>
+        <v>2</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -5958,24 +5882,24 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>836</v>
+        <v>785</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="12"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="8"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="3:15">
@@ -5983,16 +5907,16 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -6003,48 +5927,48 @@
       <c r="N42" s="12"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="3:15" ht="15">
+    <row r="43" spans="3:15">
       <c r="C43" s="3">
         <v>42</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="5"/>
+      <c r="D43" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="12"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" ht="15">
       <c r="C44" s="3">
         <v>43</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="D44" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="12"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="5"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="3:15">
@@ -6058,7 +5982,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>2</v>
@@ -6080,18 +6004,16 @@
         <v>785</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="I46" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
@@ -6110,13 +6032,15 @@
         <v>241</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -6132,18 +6056,16 @@
         <v>785</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>810</v>
-      </c>
-      <c r="I48" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -6162,12 +6084,14 @@
         <v>254</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>810</v>
+      </c>
       <c r="I49" s="7"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -6181,15 +6105,17 @@
         <v>49</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="F50" s="11">
-        <v>5</v>
-      </c>
-      <c r="G50" s="11"/>
+        <v>785</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="11"/>
@@ -6204,17 +6130,15 @@
         <v>50</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>785</v>
+        <v>808</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>2</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F51" s="11">
+        <v>5</v>
+      </c>
+      <c r="G51" s="11"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="11"/>
@@ -6231,11 +6155,11 @@
       <c r="D52" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>241</v>
+      <c r="E52" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>2</v>
@@ -6252,44 +6176,44 @@
       <c r="C53" s="3">
         <v>52</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="F53" s="3">
-        <v>2</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="D53" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="8"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="12"/>
     </row>
     <row r="54" spans="3:15">
       <c r="C54" s="3">
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>22</v>
+        <v>799</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -6300,25 +6224,25 @@
       <c r="C55" s="3">
         <v>54</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E55" s="11" t="s">
+      <c r="D55" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="12"/>
+      <c r="F55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="8"/>
     </row>
     <row r="56" spans="3:15">
       <c r="C56" s="3">
@@ -6328,18 +6252,16 @@
         <v>785</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="I56" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
@@ -6357,13 +6279,15 @@
         <v>623</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>184</v>
+        <v>624</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="I57" s="7"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
@@ -6381,17 +6305,13 @@
         <v>623</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="7">
-        <v>2</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>802</v>
-      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
@@ -6402,25 +6322,29 @@
       <c r="C59" s="3">
         <v>58</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="8"/>
+      <c r="E59" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="7">
+        <v>2</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="12"/>
     </row>
     <row r="60" spans="3:15">
       <c r="C60" s="3">
@@ -6433,7 +6357,7 @@
         <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>2</v>
@@ -6451,28 +6375,26 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>811</v>
+        <v>785</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>812</v>
+        <v>19</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>578</v>
+        <v>78</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="I61" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="3:15" ht="14.25">
+    <row r="62" spans="3:15">
       <c r="C62" s="3">
         <v>61</v>
       </c>
@@ -6483,12 +6405,14 @@
         <v>812</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>184</v>
+        <v>578</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>801</v>
+      </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -6496,23 +6420,23 @@
       <c r="M62" s="3"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="3:15">
+    <row r="63" spans="3:15" ht="14.25">
       <c r="C63" s="3">
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>585</v>
+      <c r="E63" s="7" t="s">
+        <v>812</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="7"/>
+      <c r="H63" s="13"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -6527,17 +6451,17 @@
       <c r="D64" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>812</v>
+      <c r="E64" s="3" t="s">
+        <v>585</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -6548,36 +6472,38 @@
       <c r="C65" s="3">
         <v>64</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>817</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="G65" s="7"/>
+      <c r="D65" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="9"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="8"/>
     </row>
     <row r="66" spans="3:14">
       <c r="C66" s="3">
         <v>65</v>
       </c>
       <c r="D66" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="F66" s="11" t="s">
         <v>817</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>819</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -6590,70 +6516,30 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N64">
-    <cfRule type="cellIs" dxfId="11" priority="71" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N66">
+    <cfRule type="cellIs" dxfId="1" priority="71" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="72" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N59:N64">
-    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N59:N64">
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N59:N64">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N65">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N66">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="72" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G62:G64 G2:G60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63:G65 G2:G61">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D52 D54:D60 D65:D66 D39:D42 D3 D29:D37 D7:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79 E2:E66">
+      <formula1>Forms</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45:D53 D8:D28 D30:D38 D3:D4 D40:D43 D66 D55:D61">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80 E2:E66">
-      <formula1>Forms</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F65">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H19" r:id="rId1"/>
+    <hyperlink ref="H20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -28583,39 +28469,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B5" s="20">
         <v>41815</v>
@@ -28623,10 +28509,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -28639,7 +28525,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="16" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B8" s="19"/>
     </row>

--- a/NformTester/NformTester/Keywordscripts/900.10.080_ContextMenu.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.10.080_ContextMenu.xlsx
@@ -3613,14 +3613,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>$SNMP_GXT_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3771,6 +3763,14 @@
   </si>
   <si>
     <t>$Sys_Image_File_Name$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4744,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4763,10 +4763,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>757</v>
@@ -4808,10 +4808,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="16" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -4833,22 +4833,22 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>815</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>816</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>817</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4862,10 +4862,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B5" s="20">
         <v>41815</v>
@@ -4922,10 +4922,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -4943,20 +4943,20 @@
       <c r="H6" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>798</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="2"/>
@@ -4972,7 +4972,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="3">
@@ -5094,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -5125,7 +5125,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -5185,7 +5185,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="11"/>
@@ -5216,7 +5216,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -5247,7 +5247,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -5338,7 +5338,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -5369,7 +5369,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -5478,8 +5478,8 @@
       <c r="G24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>795</v>
+      <c r="H24" s="11" t="s">
+        <v>835</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="11"/>
@@ -5675,7 +5675,7 @@
         <v>56</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="11"/>
@@ -5727,7 +5727,7 @@
         <v>13</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="11"/>
@@ -5767,10 +5767,10 @@
         <v>35</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F36" s="11">
         <v>5</v>
@@ -5840,7 +5840,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="11"/>
@@ -5891,7 +5891,7 @@
         <v>101</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -5907,13 +5907,13 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>2</v>
@@ -5932,16 +5932,16 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -6038,7 +6038,7 @@
         <v>56</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="11"/>
@@ -6090,7 +6090,7 @@
         <v>13</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="11"/>
@@ -6130,10 +6130,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F51" s="11">
         <v>5</v>
@@ -6201,10 +6201,10 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
@@ -6285,7 +6285,7 @@
         <v>56</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="11"/>
@@ -6338,7 +6338,7 @@
         <v>2</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
@@ -6399,10 +6399,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>578</v>
@@ -6411,7 +6411,7 @@
         <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -6425,10 +6425,10 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>184</v>
@@ -6449,7 +6449,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>585</v>
@@ -6473,10 +6473,10 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>99</v>
@@ -6497,13 +6497,13 @@
         <v>65</v>
       </c>
       <c r="D66" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>815</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>816</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>817</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -28469,39 +28469,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B5" s="20">
         <v>41815</v>
@@ -28509,10 +28509,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -28525,7 +28525,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B8" s="19"/>
     </row>
